--- a/160000-180000.xlsx
+++ b/160000-180000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -59,6 +65,15 @@
   </si>
   <si>
     <t>BPO Løn</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
   </si>
   <si>
     <t>160000-180000</t>
@@ -423,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,10 +463,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -460,18 +481,21 @@
         <v>164796</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>44432</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -480,18 +504,21 @@
         <v>162281</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>44530</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -500,18 +527,21 @@
         <v>179010</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>44972</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -520,18 +550,21 @@
         <v>160611</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>45014</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -540,13 +573,16 @@
         <v>171628</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>45043</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/160000-180000.xlsx
+++ b/160000-180000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>35802495</t>
   </si>
   <si>
+    <t>26259495</t>
+  </si>
+  <si>
     <t>BPO Løn &amp; HR</t>
   </si>
   <si>
@@ -73,7 +79,19 @@
     <t>Strategisk beslutning</t>
   </si>
   <si>
-    <t>Ikke oplyst</t>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
   <si>
     <t>160000-180000</t>
@@ -438,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,10 +487,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -481,21 +502,24 @@
         <v>164796</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>44432</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -504,21 +528,24 @@
         <v>162281</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>44530</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -527,21 +554,21 @@
         <v>179010</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>44972</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -550,21 +577,21 @@
         <v>160611</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>45014</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -573,16 +600,39 @@
         <v>171628</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2">
         <v>45043</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7">
+        <v>174121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/160000-180000.xlsx
+++ b/160000-180000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>CVR</t>
   </si>
@@ -61,6 +61,9 @@
     <t>26259495</t>
   </si>
   <si>
+    <t>27524958</t>
+  </si>
+  <si>
     <t>BPO Løn &amp; HR</t>
   </si>
   <si>
@@ -73,12 +76,18 @@
     <t>BPO Løn</t>
   </si>
   <si>
+    <t>BPO Visma Løn og HR</t>
+  </si>
+  <si>
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
     <t>Strategisk beslutning</t>
   </si>
   <si>
+    <t>Zenegy</t>
+  </si>
+  <si>
     <t>2021Q3</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
   <si>
     <t>160000-180000</t>
@@ -456,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,19 +514,19 @@
         <v>164796</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2">
         <v>44432</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -528,19 +540,19 @@
         <v>162281</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>44530</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,16 +566,16 @@
         <v>179010</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>44972</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -577,16 +589,16 @@
         <v>160611</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>45014</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -600,16 +612,16 @@
         <v>171628</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>45043</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -623,16 +635,42 @@
         <v>174121</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>45112</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="C8">
+        <v>163235.74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45243</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/160000-180000.xlsx
+++ b/160000-180000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>CVR</t>
   </si>
@@ -64,6 +64,12 @@
     <t>27524958</t>
   </si>
   <si>
+    <t>15683481</t>
+  </si>
+  <si>
+    <t>25638670</t>
+  </si>
+  <si>
     <t>BPO Løn &amp; HR</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
+    <t>BPO Løn og refusion</t>
+  </si>
+  <si>
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
@@ -104,6 +113,12 @@
   </si>
   <si>
     <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
   </si>
   <si>
     <t>160000-180000</t>
@@ -468,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,19 +529,19 @@
         <v>164796</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>44432</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -540,19 +555,19 @@
         <v>162281</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>44530</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -566,16 +581,16 @@
         <v>179010</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>44972</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -589,16 +604,16 @@
         <v>160611</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>45014</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,16 +627,16 @@
         <v>171628</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>45043</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -635,16 +650,16 @@
         <v>174121</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>45112</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -658,19 +673,65 @@
         <v>163235.74</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2">
         <v>45243</v>
       </c>
       <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9">
+        <v>175476</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45428</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10">
+        <v>177066</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
+      <c r="E10" s="2">
+        <v>45531</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
